--- a/Vendas 2022.xlsx
+++ b/Vendas 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\joalheria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F037F2B7-04CC-4B41-AA47-8476B0B5FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B255D-898B-4315-87BE-0CE2B53967DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5099A954-880F-49A9-95DB-E4B3A812E9DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="26">
   <si>
     <t>Produto</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E9D050-CF76-4131-9224-51DBA7E66B27}">
-  <dimension ref="A1:L626"/>
+  <dimension ref="A1:L640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="E627" sqref="E627"/>
+    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="I626" sqref="I626:L640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25043,7 +25043,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G571" s="7">
-        <f t="shared" ref="G571:G626" si="53">E571*F571</f>
+        <f t="shared" ref="G571:G634" si="53">E571*F571</f>
         <v>7.4749999999999996</v>
       </c>
       <c r="H571" s="1">
@@ -27429,6 +27429,608 @@
       <c r="L626" s="6">
         <f t="shared" si="69"/>
         <v>414</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A627" s="4">
+        <v>44470</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E627" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F627" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G627" s="2">
+        <f t="shared" si="53"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="H627" s="1">
+        <v>1</v>
+      </c>
+      <c r="I627" s="6">
+        <f t="shared" ref="I627:I640" si="70">E627*300*F627</f>
+        <v>2208</v>
+      </c>
+      <c r="J627" s="3">
+        <f t="shared" ref="J627:J640" si="71">I627*2.5</f>
+        <v>5520</v>
+      </c>
+      <c r="K627" s="6">
+        <f t="shared" ref="K627:K640" si="72">J627*H627</f>
+        <v>5520</v>
+      </c>
+      <c r="L627" s="6">
+        <f t="shared" ref="L627:L640" si="73">K627-I627</f>
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A628" s="4">
+        <v>44471</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E628" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F628" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G628" s="2">
+        <f t="shared" si="53"/>
+        <v>2.875</v>
+      </c>
+      <c r="H628" s="1">
+        <v>1</v>
+      </c>
+      <c r="I628" s="6">
+        <f t="shared" si="70"/>
+        <v>862.49999999999989</v>
+      </c>
+      <c r="J628" s="3">
+        <f t="shared" si="71"/>
+        <v>2156.2499999999995</v>
+      </c>
+      <c r="K628" s="6">
+        <f t="shared" si="72"/>
+        <v>2156.2499999999995</v>
+      </c>
+      <c r="L628" s="6">
+        <f t="shared" si="73"/>
+        <v>1293.7499999999995</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A629" s="4">
+        <v>44472</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E629" s="2">
+        <v>1</v>
+      </c>
+      <c r="F629" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G629" s="2">
+        <f t="shared" si="53"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H629" s="1">
+        <v>1</v>
+      </c>
+      <c r="I629" s="6">
+        <f t="shared" si="70"/>
+        <v>345</v>
+      </c>
+      <c r="J629" s="3">
+        <f t="shared" si="71"/>
+        <v>862.5</v>
+      </c>
+      <c r="K629" s="6">
+        <f t="shared" si="72"/>
+        <v>862.5</v>
+      </c>
+      <c r="L629" s="6">
+        <f t="shared" si="73"/>
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A630" s="4">
+        <v>44473</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E630" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F630" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G630" s="2">
+        <f t="shared" si="53"/>
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="H630" s="1">
+        <v>1</v>
+      </c>
+      <c r="I630" s="6">
+        <f t="shared" si="70"/>
+        <v>1069.5</v>
+      </c>
+      <c r="J630" s="3">
+        <f t="shared" si="71"/>
+        <v>2673.75</v>
+      </c>
+      <c r="K630" s="6">
+        <f t="shared" si="72"/>
+        <v>2673.75</v>
+      </c>
+      <c r="L630" s="6">
+        <f t="shared" si="73"/>
+        <v>1604.25</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A631" s="4">
+        <v>44474</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E631" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F631" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G631" s="2">
+        <f t="shared" si="53"/>
+        <v>2.9899999999999998</v>
+      </c>
+      <c r="H631" s="1">
+        <v>1</v>
+      </c>
+      <c r="I631" s="6">
+        <f t="shared" si="70"/>
+        <v>896.99999999999989</v>
+      </c>
+      <c r="J631" s="3">
+        <f t="shared" si="71"/>
+        <v>2242.4999999999995</v>
+      </c>
+      <c r="K631" s="6">
+        <f t="shared" si="72"/>
+        <v>2242.4999999999995</v>
+      </c>
+      <c r="L631" s="6">
+        <f t="shared" si="73"/>
+        <v>1345.4999999999995</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A632" s="4">
+        <v>44475</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E632" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F632" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G632" s="2">
+        <f t="shared" si="53"/>
+        <v>2.76</v>
+      </c>
+      <c r="H632" s="1">
+        <v>1</v>
+      </c>
+      <c r="I632" s="6">
+        <f t="shared" si="70"/>
+        <v>827.99999999999989</v>
+      </c>
+      <c r="J632" s="3">
+        <f t="shared" si="71"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="K632" s="6">
+        <f t="shared" si="72"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="L632" s="6">
+        <f t="shared" si="73"/>
+        <v>1241.9999999999995</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A633" s="4">
+        <v>44476</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E633" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F633" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G633" s="2">
+        <f t="shared" si="53"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H633" s="1">
+        <v>1</v>
+      </c>
+      <c r="I633" s="6">
+        <f t="shared" si="70"/>
+        <v>1242</v>
+      </c>
+      <c r="J633" s="3">
+        <f t="shared" si="71"/>
+        <v>3105</v>
+      </c>
+      <c r="K633" s="6">
+        <f t="shared" si="72"/>
+        <v>3105</v>
+      </c>
+      <c r="L633" s="6">
+        <f t="shared" si="73"/>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A634" s="4">
+        <v>44477</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E634" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="F634" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G634" s="2">
+        <f t="shared" si="53"/>
+        <v>8.51</v>
+      </c>
+      <c r="H634" s="1">
+        <v>1</v>
+      </c>
+      <c r="I634" s="6">
+        <f t="shared" si="70"/>
+        <v>2553</v>
+      </c>
+      <c r="J634" s="3">
+        <f t="shared" si="71"/>
+        <v>6382.5</v>
+      </c>
+      <c r="K634" s="6">
+        <f t="shared" si="72"/>
+        <v>6382.5</v>
+      </c>
+      <c r="L634" s="6">
+        <f t="shared" si="73"/>
+        <v>3829.5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A635" s="4">
+        <v>44478</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E635" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F635" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G635" s="2">
+        <f t="shared" ref="G635:G640" si="74">E635*F635</f>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="H635" s="1">
+        <v>1</v>
+      </c>
+      <c r="I635" s="6">
+        <f t="shared" si="70"/>
+        <v>482.99999999999994</v>
+      </c>
+      <c r="J635" s="3">
+        <f t="shared" si="71"/>
+        <v>1207.4999999999998</v>
+      </c>
+      <c r="K635" s="6">
+        <f t="shared" si="72"/>
+        <v>1207.4999999999998</v>
+      </c>
+      <c r="L635" s="6">
+        <f t="shared" si="73"/>
+        <v>724.49999999999977</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A636" s="4">
+        <v>44479</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E636" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F636" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G636" s="2">
+        <f t="shared" si="74"/>
+        <v>1.4949999999999999</v>
+      </c>
+      <c r="H636" s="1">
+        <v>1</v>
+      </c>
+      <c r="I636" s="6">
+        <f t="shared" si="70"/>
+        <v>448.49999999999994</v>
+      </c>
+      <c r="J636" s="3">
+        <f t="shared" si="71"/>
+        <v>1121.2499999999998</v>
+      </c>
+      <c r="K636" s="6">
+        <f t="shared" si="72"/>
+        <v>1121.2499999999998</v>
+      </c>
+      <c r="L636" s="6">
+        <f t="shared" si="73"/>
+        <v>672.74999999999977</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A637" s="4">
+        <v>44480</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E637" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F637" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G637" s="2">
+        <f t="shared" si="74"/>
+        <v>2.875</v>
+      </c>
+      <c r="H637" s="1">
+        <v>1</v>
+      </c>
+      <c r="I637" s="6">
+        <f t="shared" si="70"/>
+        <v>862.49999999999989</v>
+      </c>
+      <c r="J637" s="3">
+        <f t="shared" si="71"/>
+        <v>2156.2499999999995</v>
+      </c>
+      <c r="K637" s="6">
+        <f t="shared" si="72"/>
+        <v>2156.2499999999995</v>
+      </c>
+      <c r="L637" s="6">
+        <f t="shared" si="73"/>
+        <v>1293.7499999999995</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A638" s="4">
+        <v>44481</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E638" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F638" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G638" s="2">
+        <f t="shared" si="74"/>
+        <v>5.4049999999999994</v>
+      </c>
+      <c r="H638" s="1">
+        <v>1</v>
+      </c>
+      <c r="I638" s="6">
+        <f t="shared" si="70"/>
+        <v>1621.4999999999998</v>
+      </c>
+      <c r="J638" s="3">
+        <f t="shared" si="71"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="K638" s="6">
+        <f t="shared" si="72"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="L638" s="6">
+        <f t="shared" si="73"/>
+        <v>2432.25</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A639" s="4">
+        <v>44482</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E639" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F639" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G639" s="2">
+        <f t="shared" si="74"/>
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="H639" s="1">
+        <v>1</v>
+      </c>
+      <c r="I639" s="6">
+        <f t="shared" si="70"/>
+        <v>2242.5</v>
+      </c>
+      <c r="J639" s="3">
+        <f t="shared" si="71"/>
+        <v>5606.25</v>
+      </c>
+      <c r="K639" s="6">
+        <f t="shared" si="72"/>
+        <v>5606.25</v>
+      </c>
+      <c r="L639" s="6">
+        <f t="shared" si="73"/>
+        <v>3363.75</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A640" s="4">
+        <v>44483</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E640" s="2">
+        <v>2</v>
+      </c>
+      <c r="F640" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G640" s="2">
+        <f t="shared" si="74"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H640" s="1">
+        <v>1</v>
+      </c>
+      <c r="I640" s="6">
+        <f t="shared" si="70"/>
+        <v>690</v>
+      </c>
+      <c r="J640" s="3">
+        <f t="shared" si="71"/>
+        <v>1725</v>
+      </c>
+      <c r="K640" s="6">
+        <f t="shared" si="72"/>
+        <v>1725</v>
+      </c>
+      <c r="L640" s="6">
+        <f t="shared" si="73"/>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/Vendas 2022.xlsx
+++ b/Vendas 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\joalheria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B255D-898B-4315-87BE-0CE2B53967DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62CC55-9ECA-448E-9CC7-587E2A56EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5099A954-880F-49A9-95DB-E4B3A812E9DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="26">
   <si>
     <t>Produto</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E9D050-CF76-4131-9224-51DBA7E66B27}">
-  <dimension ref="A1:L640"/>
+  <dimension ref="A1:L689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="I626" sqref="I626:L640"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="E673" sqref="E673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27795,7 +27795,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G635" s="2">
-        <f t="shared" ref="G635:G640" si="74">E635*F635</f>
+        <f t="shared" ref="G635:G689" si="74">E635*F635</f>
         <v>1.6099999999999999</v>
       </c>
       <c r="H635" s="1">
@@ -28031,6 +28031,2113 @@
       <c r="L640" s="6">
         <f t="shared" si="73"/>
         <v>1035</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A641" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E641" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F641" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G641" s="2">
+        <f t="shared" si="74"/>
+        <v>5.4049999999999994</v>
+      </c>
+      <c r="H641" s="1">
+        <v>1</v>
+      </c>
+      <c r="I641" s="6">
+        <f t="shared" ref="I641:I654" si="75">E641*300*F641</f>
+        <v>1621.4999999999998</v>
+      </c>
+      <c r="J641" s="3">
+        <f t="shared" ref="J641:J654" si="76">I641*2.5</f>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="K641" s="6">
+        <f t="shared" ref="K641:K654" si="77">J641*H641</f>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="L641" s="6">
+        <f t="shared" ref="L641:L654" si="78">K641-I641</f>
+        <v>2432.25</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A642" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E642" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F642" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G642" s="2">
+        <f t="shared" si="74"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="H642" s="1">
+        <v>1</v>
+      </c>
+      <c r="I642" s="6">
+        <f t="shared" si="75"/>
+        <v>552</v>
+      </c>
+      <c r="J642" s="3">
+        <f t="shared" si="76"/>
+        <v>1380</v>
+      </c>
+      <c r="K642" s="6">
+        <f t="shared" si="77"/>
+        <v>1380</v>
+      </c>
+      <c r="L642" s="6">
+        <f t="shared" si="78"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A643" s="4">
+        <v>44503</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E643" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="F643" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G643" s="2">
+        <f t="shared" si="74"/>
+        <v>10.234999999999999</v>
+      </c>
+      <c r="H643" s="1">
+        <v>1</v>
+      </c>
+      <c r="I643" s="6">
+        <f t="shared" si="75"/>
+        <v>3070.4999999999995</v>
+      </c>
+      <c r="J643" s="3">
+        <f t="shared" si="76"/>
+        <v>7676.2499999999991</v>
+      </c>
+      <c r="K643" s="6">
+        <f t="shared" si="77"/>
+        <v>7676.2499999999991</v>
+      </c>
+      <c r="L643" s="6">
+        <f t="shared" si="78"/>
+        <v>4605.75</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A644" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E644" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F644" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G644" s="2">
+        <f t="shared" si="74"/>
+        <v>2.9899999999999998</v>
+      </c>
+      <c r="H644" s="1">
+        <v>1</v>
+      </c>
+      <c r="I644" s="6">
+        <f t="shared" si="75"/>
+        <v>896.99999999999989</v>
+      </c>
+      <c r="J644" s="3">
+        <f t="shared" si="76"/>
+        <v>2242.4999999999995</v>
+      </c>
+      <c r="K644" s="6">
+        <f t="shared" si="77"/>
+        <v>2242.4999999999995</v>
+      </c>
+      <c r="L644" s="6">
+        <f t="shared" si="78"/>
+        <v>1345.4999999999995</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A645" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E645" s="2">
+        <v>3</v>
+      </c>
+      <c r="F645" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G645" s="2">
+        <f t="shared" si="74"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="H645" s="1">
+        <v>1</v>
+      </c>
+      <c r="I645" s="6">
+        <f t="shared" si="75"/>
+        <v>1035</v>
+      </c>
+      <c r="J645" s="3">
+        <f t="shared" si="76"/>
+        <v>2587.5</v>
+      </c>
+      <c r="K645" s="6">
+        <f t="shared" si="77"/>
+        <v>2587.5</v>
+      </c>
+      <c r="L645" s="6">
+        <f t="shared" si="78"/>
+        <v>1552.5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A646" s="4">
+        <v>44506</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E646" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F646" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G646" s="2">
+        <f t="shared" si="74"/>
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="H646" s="1">
+        <v>1</v>
+      </c>
+      <c r="I646" s="6">
+        <f t="shared" si="75"/>
+        <v>1069.5</v>
+      </c>
+      <c r="J646" s="3">
+        <f t="shared" si="76"/>
+        <v>2673.75</v>
+      </c>
+      <c r="K646" s="6">
+        <f t="shared" si="77"/>
+        <v>2673.75</v>
+      </c>
+      <c r="L646" s="6">
+        <f t="shared" si="78"/>
+        <v>1604.25</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A647" s="4">
+        <v>44507</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E647" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F647" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G647" s="2">
+        <f t="shared" si="74"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="H647" s="1">
+        <v>1</v>
+      </c>
+      <c r="I647" s="6">
+        <f t="shared" si="75"/>
+        <v>1552.4999999999998</v>
+      </c>
+      <c r="J647" s="3">
+        <f t="shared" si="76"/>
+        <v>3881.2499999999995</v>
+      </c>
+      <c r="K647" s="6">
+        <f t="shared" si="77"/>
+        <v>3881.2499999999995</v>
+      </c>
+      <c r="L647" s="6">
+        <f t="shared" si="78"/>
+        <v>2328.75</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A648" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E648" s="2">
+        <v>1</v>
+      </c>
+      <c r="F648" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G648" s="2">
+        <f t="shared" si="74"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H648" s="1">
+        <v>1</v>
+      </c>
+      <c r="I648" s="6">
+        <f t="shared" si="75"/>
+        <v>345</v>
+      </c>
+      <c r="J648" s="3">
+        <f t="shared" si="76"/>
+        <v>862.5</v>
+      </c>
+      <c r="K648" s="6">
+        <f t="shared" si="77"/>
+        <v>862.5</v>
+      </c>
+      <c r="L648" s="6">
+        <f t="shared" si="78"/>
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A649" s="4">
+        <v>44509</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E649" s="2">
+        <v>1</v>
+      </c>
+      <c r="F649" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G649" s="2">
+        <f t="shared" si="74"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H649" s="1">
+        <v>1</v>
+      </c>
+      <c r="I649" s="6">
+        <f t="shared" si="75"/>
+        <v>345</v>
+      </c>
+      <c r="J649" s="3">
+        <f t="shared" si="76"/>
+        <v>862.5</v>
+      </c>
+      <c r="K649" s="6">
+        <f t="shared" si="77"/>
+        <v>862.5</v>
+      </c>
+      <c r="L649" s="6">
+        <f t="shared" si="78"/>
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A650" s="4">
+        <v>44510</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E650" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="F650" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G650" s="2">
+        <f t="shared" si="74"/>
+        <v>6.5549999999999997</v>
+      </c>
+      <c r="H650" s="1">
+        <v>1</v>
+      </c>
+      <c r="I650" s="6">
+        <f t="shared" si="75"/>
+        <v>1966.4999999999998</v>
+      </c>
+      <c r="J650" s="3">
+        <f t="shared" si="76"/>
+        <v>4916.2499999999991</v>
+      </c>
+      <c r="K650" s="6">
+        <f t="shared" si="77"/>
+        <v>4916.2499999999991</v>
+      </c>
+      <c r="L650" s="6">
+        <f t="shared" si="78"/>
+        <v>2949.7499999999991</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A651" s="4">
+        <v>44511</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E651" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F651" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G651" s="2">
+        <f t="shared" si="74"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H651" s="1">
+        <v>1</v>
+      </c>
+      <c r="I651" s="6">
+        <f t="shared" si="75"/>
+        <v>1242</v>
+      </c>
+      <c r="J651" s="3">
+        <f t="shared" si="76"/>
+        <v>3105</v>
+      </c>
+      <c r="K651" s="6">
+        <f t="shared" si="77"/>
+        <v>3105</v>
+      </c>
+      <c r="L651" s="6">
+        <f t="shared" si="78"/>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A652" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E652" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F652" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G652" s="2">
+        <f t="shared" si="74"/>
+        <v>2.76</v>
+      </c>
+      <c r="H652" s="1">
+        <v>1</v>
+      </c>
+      <c r="I652" s="6">
+        <f t="shared" si="75"/>
+        <v>827.99999999999989</v>
+      </c>
+      <c r="J652" s="3">
+        <f t="shared" si="76"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="K652" s="6">
+        <f t="shared" si="77"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="L652" s="6">
+        <f t="shared" si="78"/>
+        <v>1241.9999999999995</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A653" s="4">
+        <v>44513</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E653" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F653" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G653" s="2">
+        <f t="shared" si="74"/>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="H653" s="1">
+        <v>1</v>
+      </c>
+      <c r="I653" s="6">
+        <f t="shared" si="75"/>
+        <v>517.5</v>
+      </c>
+      <c r="J653" s="3">
+        <f t="shared" si="76"/>
+        <v>1293.75</v>
+      </c>
+      <c r="K653" s="6">
+        <f t="shared" si="77"/>
+        <v>1293.75</v>
+      </c>
+      <c r="L653" s="6">
+        <f t="shared" si="78"/>
+        <v>776.25</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A654" s="4">
+        <v>44514</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E654" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F654" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G654" s="2">
+        <f t="shared" si="74"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="H654" s="1">
+        <v>1</v>
+      </c>
+      <c r="I654" s="6">
+        <f t="shared" si="75"/>
+        <v>793.49999999999989</v>
+      </c>
+      <c r="J654" s="3">
+        <f t="shared" si="76"/>
+        <v>1983.7499999999998</v>
+      </c>
+      <c r="K654" s="6">
+        <f t="shared" si="77"/>
+        <v>1983.7499999999998</v>
+      </c>
+      <c r="L654" s="6">
+        <f t="shared" si="78"/>
+        <v>1190.25</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A655" s="4">
+        <v>44531</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E655" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F655" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G655" s="2">
+        <f t="shared" si="74"/>
+        <v>1.38</v>
+      </c>
+      <c r="H655" s="1">
+        <v>1</v>
+      </c>
+      <c r="I655" s="6">
+        <f t="shared" ref="I655:I689" si="79">E655*300*F655</f>
+        <v>413.99999999999994</v>
+      </c>
+      <c r="J655" s="3">
+        <f t="shared" ref="J655:J689" si="80">I655*2.5</f>
+        <v>1034.9999999999998</v>
+      </c>
+      <c r="K655" s="6">
+        <f t="shared" ref="K655:K689" si="81">J655*H655</f>
+        <v>1034.9999999999998</v>
+      </c>
+      <c r="L655" s="6">
+        <f t="shared" ref="L655:L689" si="82">K655-I655</f>
+        <v>620.99999999999977</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A656" s="4">
+        <v>44532</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E656" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F656" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G656" s="2">
+        <f t="shared" si="74"/>
+        <v>5.4049999999999994</v>
+      </c>
+      <c r="H656" s="1">
+        <v>1</v>
+      </c>
+      <c r="I656" s="6">
+        <f t="shared" si="79"/>
+        <v>1621.4999999999998</v>
+      </c>
+      <c r="J656" s="3">
+        <f t="shared" si="80"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="K656" s="6">
+        <f t="shared" si="81"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="L656" s="6">
+        <f t="shared" si="82"/>
+        <v>2432.25</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A657" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E657" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F657" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G657" s="2">
+        <f t="shared" si="74"/>
+        <v>2.76</v>
+      </c>
+      <c r="H657" s="1">
+        <v>1</v>
+      </c>
+      <c r="I657" s="6">
+        <f t="shared" si="79"/>
+        <v>827.99999999999989</v>
+      </c>
+      <c r="J657" s="3">
+        <f t="shared" si="80"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="K657" s="6">
+        <f t="shared" si="81"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="L657" s="6">
+        <f t="shared" si="82"/>
+        <v>1241.9999999999995</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A658" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E658" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F658" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G658" s="2">
+        <f t="shared" si="74"/>
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="H658" s="1">
+        <v>1</v>
+      </c>
+      <c r="I658" s="6">
+        <f t="shared" si="79"/>
+        <v>1828.4999999999998</v>
+      </c>
+      <c r="J658" s="3">
+        <f t="shared" si="80"/>
+        <v>4571.2499999999991</v>
+      </c>
+      <c r="K658" s="6">
+        <f t="shared" si="81"/>
+        <v>4571.2499999999991</v>
+      </c>
+      <c r="L658" s="6">
+        <f t="shared" si="82"/>
+        <v>2742.7499999999991</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A659" s="4">
+        <v>44535</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E659" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F659" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G659" s="2">
+        <f t="shared" si="74"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="H659" s="1">
+        <v>1</v>
+      </c>
+      <c r="I659" s="6">
+        <f t="shared" si="79"/>
+        <v>552</v>
+      </c>
+      <c r="J659" s="3">
+        <f t="shared" si="80"/>
+        <v>1380</v>
+      </c>
+      <c r="K659" s="6">
+        <f t="shared" si="81"/>
+        <v>1380</v>
+      </c>
+      <c r="L659" s="6">
+        <f t="shared" si="82"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A660" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E660" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F660" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G660" s="2">
+        <f t="shared" si="74"/>
+        <v>5.4049999999999994</v>
+      </c>
+      <c r="H660" s="1">
+        <v>1</v>
+      </c>
+      <c r="I660" s="6">
+        <f t="shared" si="79"/>
+        <v>1621.4999999999998</v>
+      </c>
+      <c r="J660" s="3">
+        <f t="shared" si="80"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="K660" s="6">
+        <f t="shared" si="81"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="L660" s="6">
+        <f t="shared" si="82"/>
+        <v>2432.25</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A661" s="4">
+        <v>44537</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E661" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="F661" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G661" s="2">
+        <f t="shared" si="74"/>
+        <v>6.21</v>
+      </c>
+      <c r="H661" s="1">
+        <v>1</v>
+      </c>
+      <c r="I661" s="6">
+        <f t="shared" si="79"/>
+        <v>1862.9999999999998</v>
+      </c>
+      <c r="J661" s="3">
+        <f t="shared" si="80"/>
+        <v>4657.4999999999991</v>
+      </c>
+      <c r="K661" s="6">
+        <f t="shared" si="81"/>
+        <v>4657.4999999999991</v>
+      </c>
+      <c r="L661" s="6">
+        <f t="shared" si="82"/>
+        <v>2794.4999999999991</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A662" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E662" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F662" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G662" s="2">
+        <f t="shared" si="74"/>
+        <v>4.3699999999999992</v>
+      </c>
+      <c r="H662" s="1">
+        <v>1</v>
+      </c>
+      <c r="I662" s="6">
+        <f t="shared" si="79"/>
+        <v>1311</v>
+      </c>
+      <c r="J662" s="3">
+        <f t="shared" si="80"/>
+        <v>3277.5</v>
+      </c>
+      <c r="K662" s="6">
+        <f t="shared" si="81"/>
+        <v>3277.5</v>
+      </c>
+      <c r="L662" s="6">
+        <f t="shared" si="82"/>
+        <v>1966.5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A663" s="4">
+        <v>44539</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E663" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="F663" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G663" s="2">
+        <f t="shared" si="74"/>
+        <v>17.939999999999998</v>
+      </c>
+      <c r="H663" s="1">
+        <v>1</v>
+      </c>
+      <c r="I663" s="6">
+        <f t="shared" si="79"/>
+        <v>5382</v>
+      </c>
+      <c r="J663" s="3">
+        <f t="shared" si="80"/>
+        <v>13455</v>
+      </c>
+      <c r="K663" s="6">
+        <f t="shared" si="81"/>
+        <v>13455</v>
+      </c>
+      <c r="L663" s="6">
+        <f t="shared" si="82"/>
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A664" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E664" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F664" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G664" s="2">
+        <f t="shared" si="74"/>
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="H664" s="1">
+        <v>1</v>
+      </c>
+      <c r="I664" s="6">
+        <f t="shared" si="79"/>
+        <v>1069.5</v>
+      </c>
+      <c r="J664" s="3">
+        <f t="shared" si="80"/>
+        <v>2673.75</v>
+      </c>
+      <c r="K664" s="6">
+        <f t="shared" si="81"/>
+        <v>2673.75</v>
+      </c>
+      <c r="L664" s="6">
+        <f t="shared" si="82"/>
+        <v>1604.25</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A665" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E665" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F665" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G665" s="2">
+        <f t="shared" si="74"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H665" s="1">
+        <v>1</v>
+      </c>
+      <c r="I665" s="6">
+        <f t="shared" si="79"/>
+        <v>1242</v>
+      </c>
+      <c r="J665" s="3">
+        <f t="shared" si="80"/>
+        <v>3105</v>
+      </c>
+      <c r="K665" s="6">
+        <f t="shared" si="81"/>
+        <v>3105</v>
+      </c>
+      <c r="L665" s="6">
+        <f t="shared" si="82"/>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A666" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E666" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="F666" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G666" s="2">
+        <f t="shared" si="74"/>
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="H666" s="1">
+        <v>1</v>
+      </c>
+      <c r="I666" s="6">
+        <f t="shared" si="79"/>
+        <v>2691</v>
+      </c>
+      <c r="J666" s="3">
+        <f t="shared" si="80"/>
+        <v>6727.5</v>
+      </c>
+      <c r="K666" s="6">
+        <f t="shared" si="81"/>
+        <v>6727.5</v>
+      </c>
+      <c r="L666" s="6">
+        <f t="shared" si="82"/>
+        <v>4036.5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A667" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E667" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F667" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G667" s="2">
+        <f t="shared" si="74"/>
+        <v>4.714999999999999</v>
+      </c>
+      <c r="H667" s="1">
+        <v>1</v>
+      </c>
+      <c r="I667" s="6">
+        <f t="shared" si="79"/>
+        <v>1414.5</v>
+      </c>
+      <c r="J667" s="3">
+        <f t="shared" si="80"/>
+        <v>3536.25</v>
+      </c>
+      <c r="K667" s="6">
+        <f t="shared" si="81"/>
+        <v>3536.25</v>
+      </c>
+      <c r="L667" s="6">
+        <f t="shared" si="82"/>
+        <v>2121.75</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A668" s="4">
+        <v>44544</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E668" s="2">
+        <v>1</v>
+      </c>
+      <c r="F668" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G668" s="2">
+        <f t="shared" si="74"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H668" s="1">
+        <v>1</v>
+      </c>
+      <c r="I668" s="6">
+        <f t="shared" si="79"/>
+        <v>345</v>
+      </c>
+      <c r="J668" s="3">
+        <f t="shared" si="80"/>
+        <v>862.5</v>
+      </c>
+      <c r="K668" s="6">
+        <f t="shared" si="81"/>
+        <v>862.5</v>
+      </c>
+      <c r="L668" s="6">
+        <f t="shared" si="82"/>
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A669" s="4">
+        <v>44545</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E669" s="2">
+        <v>1</v>
+      </c>
+      <c r="F669" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G669" s="2">
+        <f t="shared" si="74"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H669" s="1">
+        <v>1</v>
+      </c>
+      <c r="I669" s="6">
+        <f t="shared" si="79"/>
+        <v>345</v>
+      </c>
+      <c r="J669" s="3">
+        <f t="shared" si="80"/>
+        <v>862.5</v>
+      </c>
+      <c r="K669" s="6">
+        <f t="shared" si="81"/>
+        <v>862.5</v>
+      </c>
+      <c r="L669" s="6">
+        <f t="shared" si="82"/>
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A670" s="4">
+        <v>44546</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E670" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F670" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G670" s="2">
+        <f t="shared" si="74"/>
+        <v>5.4049999999999994</v>
+      </c>
+      <c r="H670" s="1">
+        <v>1</v>
+      </c>
+      <c r="I670" s="6">
+        <f t="shared" si="79"/>
+        <v>1621.4999999999998</v>
+      </c>
+      <c r="J670" s="3">
+        <f t="shared" si="80"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="K670" s="6">
+        <f t="shared" si="81"/>
+        <v>4053.7499999999995</v>
+      </c>
+      <c r="L670" s="6">
+        <f t="shared" si="82"/>
+        <v>2432.25</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A671" s="4">
+        <v>44547</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E671" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F671" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G671" s="2">
+        <f t="shared" si="74"/>
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="H671" s="1">
+        <v>1</v>
+      </c>
+      <c r="I671" s="6">
+        <f t="shared" si="79"/>
+        <v>1069.5</v>
+      </c>
+      <c r="J671" s="3">
+        <f t="shared" si="80"/>
+        <v>2673.75</v>
+      </c>
+      <c r="K671" s="6">
+        <f t="shared" si="81"/>
+        <v>2673.75</v>
+      </c>
+      <c r="L671" s="6">
+        <f t="shared" si="82"/>
+        <v>1604.25</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A672" s="4">
+        <v>44548</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E672" s="2">
+        <v>4</v>
+      </c>
+      <c r="F672" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G672" s="2">
+        <f t="shared" si="74"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H672" s="1">
+        <v>1</v>
+      </c>
+      <c r="I672" s="6">
+        <f t="shared" si="79"/>
+        <v>1380</v>
+      </c>
+      <c r="J672" s="3">
+        <f t="shared" si="80"/>
+        <v>3450</v>
+      </c>
+      <c r="K672" s="6">
+        <f t="shared" si="81"/>
+        <v>3450</v>
+      </c>
+      <c r="L672" s="6">
+        <f t="shared" si="82"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A673" s="4">
+        <v>44549</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E673" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F673" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G673" s="2">
+        <f t="shared" si="74"/>
+        <v>11.154999999999998</v>
+      </c>
+      <c r="H673" s="1">
+        <v>1</v>
+      </c>
+      <c r="I673" s="6">
+        <f t="shared" si="79"/>
+        <v>3346.4999999999995</v>
+      </c>
+      <c r="J673" s="3">
+        <f t="shared" si="80"/>
+        <v>8366.2499999999982</v>
+      </c>
+      <c r="K673" s="6">
+        <f t="shared" si="81"/>
+        <v>8366.2499999999982</v>
+      </c>
+      <c r="L673" s="6">
+        <f t="shared" si="82"/>
+        <v>5019.7499999999982</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A674" s="4">
+        <v>44550</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E674" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F674" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G674" s="2">
+        <f t="shared" si="74"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="H674" s="1">
+        <v>1</v>
+      </c>
+      <c r="I674" s="6">
+        <f t="shared" si="79"/>
+        <v>276</v>
+      </c>
+      <c r="J674" s="3">
+        <f t="shared" si="80"/>
+        <v>690</v>
+      </c>
+      <c r="K674" s="6">
+        <f t="shared" si="81"/>
+        <v>690</v>
+      </c>
+      <c r="L674" s="6">
+        <f t="shared" si="82"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A675" s="4">
+        <v>44551</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E675" s="2">
+        <v>2</v>
+      </c>
+      <c r="F675" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G675" s="2">
+        <f t="shared" si="74"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H675" s="1">
+        <v>1</v>
+      </c>
+      <c r="I675" s="6">
+        <f t="shared" si="79"/>
+        <v>690</v>
+      </c>
+      <c r="J675" s="3">
+        <f t="shared" si="80"/>
+        <v>1725</v>
+      </c>
+      <c r="K675" s="6">
+        <f t="shared" si="81"/>
+        <v>1725</v>
+      </c>
+      <c r="L675" s="6">
+        <f t="shared" si="82"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A676" s="4">
+        <v>44552</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E676" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F676" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G676" s="2">
+        <f t="shared" si="74"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="H676" s="1">
+        <v>1</v>
+      </c>
+      <c r="I676" s="6">
+        <f t="shared" si="79"/>
+        <v>552</v>
+      </c>
+      <c r="J676" s="3">
+        <f t="shared" si="80"/>
+        <v>1380</v>
+      </c>
+      <c r="K676" s="6">
+        <f t="shared" si="81"/>
+        <v>1380</v>
+      </c>
+      <c r="L676" s="6">
+        <f t="shared" si="82"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A677" s="4">
+        <v>44553</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E677" s="2">
+        <v>1</v>
+      </c>
+      <c r="F677" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G677" s="2">
+        <f t="shared" si="74"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H677" s="1">
+        <v>1</v>
+      </c>
+      <c r="I677" s="6">
+        <f t="shared" si="79"/>
+        <v>345</v>
+      </c>
+      <c r="J677" s="3">
+        <f t="shared" si="80"/>
+        <v>862.5</v>
+      </c>
+      <c r="K677" s="6">
+        <f t="shared" si="81"/>
+        <v>862.5</v>
+      </c>
+      <c r="L677" s="6">
+        <f t="shared" si="82"/>
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A678" s="4">
+        <v>44554</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E678" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F678" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G678" s="2">
+        <f t="shared" si="74"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H678" s="1">
+        <v>1</v>
+      </c>
+      <c r="I678" s="6">
+        <f t="shared" si="79"/>
+        <v>1242</v>
+      </c>
+      <c r="J678" s="3">
+        <f t="shared" si="80"/>
+        <v>3105</v>
+      </c>
+      <c r="K678" s="6">
+        <f t="shared" si="81"/>
+        <v>3105</v>
+      </c>
+      <c r="L678" s="6">
+        <f t="shared" si="82"/>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A679" s="4">
+        <v>44555</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E679" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F679" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G679" s="2">
+        <f t="shared" si="74"/>
+        <v>2.415</v>
+      </c>
+      <c r="H679" s="1">
+        <v>1</v>
+      </c>
+      <c r="I679" s="6">
+        <f t="shared" si="79"/>
+        <v>724.5</v>
+      </c>
+      <c r="J679" s="3">
+        <f t="shared" si="80"/>
+        <v>1811.25</v>
+      </c>
+      <c r="K679" s="6">
+        <f t="shared" si="81"/>
+        <v>1811.25</v>
+      </c>
+      <c r="L679" s="6">
+        <f t="shared" si="82"/>
+        <v>1086.75</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A680" s="4">
+        <v>44556</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E680" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F680" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G680" s="2">
+        <f t="shared" si="74"/>
+        <v>2.76</v>
+      </c>
+      <c r="H680" s="1">
+        <v>1</v>
+      </c>
+      <c r="I680" s="6">
+        <f t="shared" si="79"/>
+        <v>827.99999999999989</v>
+      </c>
+      <c r="J680" s="3">
+        <f t="shared" si="80"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="K680" s="6">
+        <f t="shared" si="81"/>
+        <v>2069.9999999999995</v>
+      </c>
+      <c r="L680" s="6">
+        <f t="shared" si="82"/>
+        <v>1241.9999999999995</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A681" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E681" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F681" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G681" s="2">
+        <f t="shared" si="74"/>
+        <v>4.714999999999999</v>
+      </c>
+      <c r="H681" s="1">
+        <v>1</v>
+      </c>
+      <c r="I681" s="6">
+        <f t="shared" si="79"/>
+        <v>1414.5</v>
+      </c>
+      <c r="J681" s="3">
+        <f t="shared" si="80"/>
+        <v>3536.25</v>
+      </c>
+      <c r="K681" s="6">
+        <f t="shared" si="81"/>
+        <v>3536.25</v>
+      </c>
+      <c r="L681" s="6">
+        <f t="shared" si="82"/>
+        <v>2121.75</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A682" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E682" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F682" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G682" s="2">
+        <f t="shared" si="74"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="H682" s="1">
+        <v>1</v>
+      </c>
+      <c r="I682" s="6">
+        <f t="shared" si="79"/>
+        <v>1552.4999999999998</v>
+      </c>
+      <c r="J682" s="3">
+        <f t="shared" si="80"/>
+        <v>3881.2499999999995</v>
+      </c>
+      <c r="K682" s="6">
+        <f t="shared" si="81"/>
+        <v>3881.2499999999995</v>
+      </c>
+      <c r="L682" s="6">
+        <f t="shared" si="82"/>
+        <v>2328.75</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A683" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E683" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F683" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G683" s="2">
+        <f t="shared" si="74"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="H683" s="1">
+        <v>1</v>
+      </c>
+      <c r="I683" s="6">
+        <f t="shared" si="79"/>
+        <v>2208</v>
+      </c>
+      <c r="J683" s="3">
+        <f t="shared" si="80"/>
+        <v>5520</v>
+      </c>
+      <c r="K683" s="6">
+        <f t="shared" si="81"/>
+        <v>5520</v>
+      </c>
+      <c r="L683" s="6">
+        <f t="shared" si="82"/>
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A684" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E684" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F684" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G684" s="2">
+        <f t="shared" si="74"/>
+        <v>10.004999999999999</v>
+      </c>
+      <c r="H684" s="1">
+        <v>1</v>
+      </c>
+      <c r="I684" s="6">
+        <f t="shared" si="79"/>
+        <v>3001.4999999999995</v>
+      </c>
+      <c r="J684" s="3">
+        <f t="shared" si="80"/>
+        <v>7503.7499999999991</v>
+      </c>
+      <c r="K684" s="6">
+        <f t="shared" si="81"/>
+        <v>7503.7499999999991</v>
+      </c>
+      <c r="L684" s="6">
+        <f t="shared" si="82"/>
+        <v>4502.25</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A685" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E685" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F685" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G685" s="2">
+        <f t="shared" si="74"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="H685" s="1">
+        <v>1</v>
+      </c>
+      <c r="I685" s="6">
+        <f t="shared" si="79"/>
+        <v>1552.4999999999998</v>
+      </c>
+      <c r="J685" s="3">
+        <f t="shared" si="80"/>
+        <v>3881.2499999999995</v>
+      </c>
+      <c r="K685" s="6">
+        <f t="shared" si="81"/>
+        <v>3881.2499999999995</v>
+      </c>
+      <c r="L685" s="6">
+        <f t="shared" si="82"/>
+        <v>2328.75</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A686" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E686" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F686" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G686" s="2">
+        <f t="shared" si="74"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="H686" s="1">
+        <v>1</v>
+      </c>
+      <c r="I686" s="6">
+        <f t="shared" si="79"/>
+        <v>2208</v>
+      </c>
+      <c r="J686" s="3">
+        <f t="shared" si="80"/>
+        <v>5520</v>
+      </c>
+      <c r="K686" s="6">
+        <f t="shared" si="81"/>
+        <v>5520</v>
+      </c>
+      <c r="L686" s="6">
+        <f t="shared" si="82"/>
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A687" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E687" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F687" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G687" s="2">
+        <f t="shared" si="74"/>
+        <v>2.415</v>
+      </c>
+      <c r="H687" s="1">
+        <v>1</v>
+      </c>
+      <c r="I687" s="6">
+        <f t="shared" si="79"/>
+        <v>724.5</v>
+      </c>
+      <c r="J687" s="3">
+        <f t="shared" si="80"/>
+        <v>1811.25</v>
+      </c>
+      <c r="K687" s="6">
+        <f t="shared" si="81"/>
+        <v>1811.25</v>
+      </c>
+      <c r="L687" s="6">
+        <f t="shared" si="82"/>
+        <v>1086.75</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A688" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E688" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F688" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G688" s="2">
+        <f t="shared" si="74"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="H688" s="1">
+        <v>1</v>
+      </c>
+      <c r="I688" s="6">
+        <f t="shared" si="79"/>
+        <v>793.49999999999989</v>
+      </c>
+      <c r="J688" s="3">
+        <f t="shared" si="80"/>
+        <v>1983.7499999999998</v>
+      </c>
+      <c r="K688" s="6">
+        <f t="shared" si="81"/>
+        <v>1983.7499999999998</v>
+      </c>
+      <c r="L688" s="6">
+        <f t="shared" si="82"/>
+        <v>1190.25</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A689" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E689" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F689" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G689" s="2">
+        <f t="shared" si="74"/>
+        <v>1.38</v>
+      </c>
+      <c r="H689" s="1">
+        <v>1</v>
+      </c>
+      <c r="I689" s="6">
+        <f t="shared" si="79"/>
+        <v>413.99999999999994</v>
+      </c>
+      <c r="J689" s="3">
+        <f t="shared" si="80"/>
+        <v>1034.9999999999998</v>
+      </c>
+      <c r="K689" s="6">
+        <f t="shared" si="81"/>
+        <v>1034.9999999999998</v>
+      </c>
+      <c r="L689" s="6">
+        <f t="shared" si="82"/>
+        <v>620.99999999999977</v>
       </c>
     </row>
   </sheetData>
